--- a/Assets/Excel/CharacterExp.xlsx
+++ b/Assets/Excel/CharacterExp.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D10">
         <v>12</v>

--- a/Assets/Excel/CharacterExp.xlsx
+++ b/Assets/Excel/CharacterExp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14420" windowHeight="8480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExp" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1050,10 +1050,10 @@
         <v>2</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1070,10 +1070,10 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1110,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1130,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1150,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterExp.xlsx
+++ b/Assets/Excel/CharacterExp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16710" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExp" sheetId="1" r:id="rId1"/>
@@ -968,10 +968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1156,6 +1156,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>520</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>650</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/CharacterExp.xlsx
+++ b/Assets/Excel/CharacterExp.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16710" windowHeight="12040"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -968,10 +981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1187,13 +1200,33 @@
         <v>650</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
